--- a/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E589D-C481-4CAC-A3D1-E91C4696D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E8B8E8-0F3C-4538-879B-15086BE8E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="410">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>4. The Company's Liquidity and leverage rating</t>
   </si>
   <si>
-    <t>Cyclicals</t>
-  </si>
-  <si>
     <t>WCInv</t>
   </si>
   <si>
@@ -1440,6 +1437,15 @@
   </si>
   <si>
     <t>Information Technology Like, 6.6y</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>家居护理</t>
+  </si>
+  <si>
+    <t>Slow Growers</t>
   </si>
 </sst>
 </file>
@@ -5790,16 +5796,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>69000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="#,##0">
-                  <c:v>56000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
-                  <c:v>247000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>1176000</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,7 +5891,7 @@
                   <c:v>113211</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
-                  <c:v>0</c:v>
+                  <c:v>48670.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10509,7 +10515,7 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
@@ -10555,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="351" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" s="352"/>
       <c r="E3" s="6"/>
@@ -10572,7 +10578,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="353" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" s="322"/>
       <c r="E4" s="6"/>
@@ -10641,7 +10647,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>0</v>
+        <v>2.298850574712644E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10755,7 +10761,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>6.0992617033394261</v>
+        <v>8.9260129791874565</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10804,7 +10810,7 @@
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-3.3097086097146011E-2</v>
+        <v>-4.8382494340575066E-2</v>
       </c>
       <c r="E16" s="341" t="s">
         <v>21</v>
@@ -10821,57 +10827,57 @@
         <v>2.3081724565858783</v>
       </c>
       <c r="I16" s="336">
-        <v>2.3E-2</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.6436781609195403E-3</v>
+        <v>2.298850574712644E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>7.5157323568131851</v>
+        <v>8.3492269160308297</v>
       </c>
       <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>0.15077393246338211</v>
+        <v>0</v>
       </c>
       <c r="E17" s="342"/>
       <c r="F17" s="363"/>
       <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>1.1239048133990641</v>
+        <v>1.9573993726167087</v>
       </c>
       <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>3.0602473462416433E-3</v>
+        <v>2.395431361626937E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.15360738012731057</v>
+        <v>2.1838085272804397E-2</v>
       </c>
       <c r="E18" s="343"/>
       <c r="F18" s="364"/>
       <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>1.108172456585879</v>
+        <v>1.8081724565858783</v>
       </c>
       <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.0666666666666668E-3</v>
+        <v>2.4390243902439029E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10887,7 +10893,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10898,7 +10904,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="131">
         <f>IF(OR(D20="Cyclicals",D20="Cyclicals",D20="Cyclicals"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -10907,7 +10913,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="357" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D21" s="358"/>
       <c r="E21" s="359"/>
@@ -10923,13 +10929,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="366" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D22" s="352"/>
       <c r="E22" s="352"/>
       <c r="F22" s="352"/>
       <c r="G22" s="366" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H22" s="366"/>
       <c r="I22" s="352"/>
@@ -10941,13 +10947,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="339" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="340"/>
       <c r="E23" s="340"/>
       <c r="F23" s="340"/>
       <c r="G23" s="339" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H23" s="339"/>
       <c r="I23" s="340"/>
@@ -11039,7 +11045,7 @@
       </c>
       <c r="C29" s="335">
         <f>C33/D27</f>
-        <v>0.18181818181818182</v>
+        <v>0.19878787878787879</v>
       </c>
       <c r="D29" s="329"/>
       <c r="E29" s="334">
@@ -11054,7 +11060,7 @@
       <c r="H29" s="345"/>
       <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.18181818181818182</v>
+        <v>0.19878787878787879</v>
       </c>
       <c r="J29" s="344"/>
     </row>
@@ -11081,7 +11087,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="323">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D31" s="322"/>
       <c r="E31" s="323"/>
@@ -11097,7 +11103,7 @@
       </c>
       <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
-        <v>1825.155</v>
+        <v>1995.5027999999998</v>
       </c>
       <c r="D32" s="329"/>
       <c r="E32" s="330">
@@ -11119,7 +11125,7 @@
       </c>
       <c r="C33" s="326">
         <f>C30*C31</f>
-        <v>120000</v>
+        <v>131200</v>
       </c>
       <c r="D33" s="327"/>
       <c r="E33" s="326">
@@ -11134,7 +11140,7 @@
       <c r="H33" s="326"/>
       <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>120000</v>
+        <v>131200</v>
       </c>
       <c r="J33" s="326"/>
     </row>
@@ -11146,14 +11152,14 @@
       <c r="D34" s="376"/>
       <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
       <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J34" s="328"/>
     </row>
@@ -11165,14 +11171,14 @@
       <c r="D35" s="378"/>
       <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>1825.155</v>
+        <v>1995.5027999999998</v>
       </c>
       <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
       <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>1825.155</v>
+        <v>1995.5027999999998</v>
       </c>
       <c r="J35" s="324"/>
     </row>
@@ -11183,7 +11189,7 @@
       </c>
       <c r="C37" s="374">
         <f>C31</f>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
@@ -11197,7 +11203,7 @@
       <c r="H37" s="371"/>
       <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>10.152055350954829</v>
+        <v>10.019072299236996</v>
       </c>
       <c r="J37" s="373"/>
     </row>
@@ -11207,7 +11213,7 @@
       </c>
       <c r="C38" s="374">
         <f>E34</f>
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D38" s="375"/>
       <c r="E38" s="6"/>
@@ -11218,7 +11224,7 @@
       <c r="H38" s="371"/>
       <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>4.8794093626715407</v>
+        <v>7.1408103833499652</v>
       </c>
       <c r="J38" s="373"/>
     </row>
@@ -11273,7 +11279,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="54">
         <f>80%-(5%*IF(LEFT(D20,2)="St",3,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",6,IF(LEFT(D20,2)="Tu",7,IF(LEFT(D20,2)="Fa",8,0))))))</f>
-        <v>0.5</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
@@ -11344,11 +11350,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.35360738012731052</v>
+        <v>0.22183808527280435</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.35360738012731052</v>
+        <v>0.22183808527280435</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11363,11 +11369,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.34941208497712795</v>
+        <v>-0.12916946544512609</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.34941208497712795</v>
+        <v>-0.12916946544512609</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11392,11 +11398,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.66963512084430155</v>
+        <v>0.71848245331205107</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.66963512084430155</v>
+        <v>0.71848245331205107</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11411,11 +11417,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>1.0120067259564225</v>
+        <v>1.7174189310789232</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>1.0120067259564225</v>
+        <v>1.7174189310789232</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11430,11 +11436,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>3.9009557331615827</v>
+        <v>2.2538961215119007</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>3.9009557331615827</v>
+        <v>2.2538961215119007</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11449,11 +11455,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>8.7975820515321032E-2</v>
+        <v>0.24604660145149354</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>8.7975820515321032E-2</v>
+        <v>0.24604660145149354</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>273</v>
@@ -11504,17 +11510,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12545,7 +12551,7 @@
       <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -12579,7 +12585,7 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -13102,47 +13108,47 @@
         <v>50</v>
       </c>
       <c r="C16" s="51">
-        <f>IF(C14="","",C14*(1-Projections!$F$19))</f>
+        <f>IF(C14="","",C14*(1-Projections!$F$16))</f>
         <v>34194.75</v>
       </c>
       <c r="D16" s="51">
-        <f>IF(D14="","",D14*(1-Projections!$F$19))</f>
+        <f>IF(D14="","",D14*(1-Projections!$F$16))</f>
         <v>184150.5</v>
       </c>
       <c r="E16" s="51">
-        <f>IF(E14="","",E14*(1-Projections!$F$19))</f>
+        <f>IF(E14="","",E14*(1-Projections!$F$16))</f>
         <v>281302.5</v>
       </c>
       <c r="F16" s="51">
-        <f>IF(F14="","",F14*(1-Projections!$F$19))</f>
+        <f>IF(F14="","",F14*(1-Projections!$F$16))</f>
         <v>249057.75</v>
       </c>
       <c r="G16" s="51" t="str">
-        <f>IF(G14="","",G14*(1-Projections!$F$19))</f>
+        <f>IF(G14="","",G14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="H16" s="51" t="str">
-        <f>IF(H14="","",H14*(1-Projections!$F$19))</f>
+        <f>IF(H14="","",H14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="I16" s="51" t="str">
-        <f>IF(I14="","",I14*(1-Projections!$F$19))</f>
+        <f>IF(I14="","",I14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="J16" s="51" t="str">
-        <f>IF(J14="","",J14*(1-Projections!$F$19))</f>
+        <f>IF(J14="","",J14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="K16" s="51" t="str">
-        <f>IF(K14="","",K14*(1-Projections!$F$19))</f>
+        <f>IF(K14="","",K14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="L16" s="51" t="str">
-        <f>IF(L14="","",L14*(1-Projections!$F$19))</f>
+        <f>IF(L14="","",L14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="M16" s="51" t="str">
-        <f>IF(M14="","",M14*(1-Projections!$F$19))</f>
+        <f>IF(M14="","",M14*(1-Projections!$F$16))</f>
         <v/>
       </c>
       <c r="N16" s="6"/>
@@ -13304,7 +13310,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" s="150">
         <v>3424978</v>
@@ -13589,7 +13595,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="150">
         <v>771353</v>
@@ -13641,19 +13647,21 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="161">
-        <v>1176000</v>
+        <f>D33</f>
+        <v>108000</v>
       </c>
       <c r="D33" s="161">
-        <v>247000</v>
+        <v>108000</v>
       </c>
       <c r="E33" s="161">
-        <v>56000</v>
+        <v>140000</v>
       </c>
       <c r="F33" s="161">
-        <v>69000</v>
+        <f>D33</f>
+        <v>108000</v>
       </c>
       <c r="G33" s="161" t="str">
         <f t="shared" ref="G33:M33" si="10">IF(H7="","",G31-H31+IF($C$58="Yes",G60,0))</f>
@@ -13688,10 +13696,10 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C34" s="161">
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="161">
         <v>0</v>
@@ -13722,11 +13730,11 @@
       </c>
       <c r="D35" s="154">
         <f>IF(E7="","",IF(D8&lt;0,0,(D7-E7)*Asset_Model!$D$68))</f>
-        <v>118433.20229999999</v>
+        <v>23348.161199999999</v>
       </c>
       <c r="E35" s="154">
         <f>IF(F7="","",IF(E8&lt;0,0,(E7-F7)*Asset_Model!$D$68))</f>
-        <v>220076.99189999999</v>
+        <v>43386.423599999995</v>
       </c>
       <c r="F35" s="154" t="str">
         <f>IF(G7="","",IF(F8&lt;0,0,(F7-G7)*Asset_Model!$D$68))</f>
@@ -13769,15 +13777,15 @@
       </c>
       <c r="C36" s="51">
         <f t="shared" ref="C36:M36" si="11">IF(D7="","",C33+C35)</f>
-        <v>1176000</v>
+        <v>108000</v>
       </c>
       <c r="D36" s="51">
         <f t="shared" si="11"/>
-        <v>365433.2023</v>
+        <v>131348.1612</v>
       </c>
       <c r="E36" s="51">
         <f t="shared" si="11"/>
-        <v>276076.99190000002</v>
+        <v>183386.42359999998</v>
       </c>
       <c r="F36" s="51" t="str">
         <f t="shared" si="11"/>
@@ -13816,19 +13824,19 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
-        <v>0.22973515209600115</v>
+        <v>2.1098126212898066E-2</v>
       </c>
       <c r="D37" s="149">
         <f t="shared" ref="D37:M37" si="12">IF(D36="","",D33/D7)</f>
-        <v>4.0447807999004361E-2</v>
+        <v>1.7685681230333893E-2</v>
       </c>
       <c r="E37" s="149">
         <f t="shared" si="12"/>
-        <v>9.7201161970461962E-3</v>
+        <v>2.4300290492615489E-2</v>
       </c>
       <c r="F37" s="149" t="str">
         <f t="shared" si="12"/>
@@ -13867,19 +13875,19 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
-        <v>34.391244269953724</v>
+        <v>3.1583795758120763</v>
       </c>
       <c r="D38" s="158">
         <f t="shared" si="13"/>
-        <v>1.341294213157173</v>
+        <v>0.58647682194726591</v>
       </c>
       <c r="E38" s="158">
         <f t="shared" si="13"/>
-        <v>0.1990739506403249</v>
+        <v>0.49768487660081229</v>
       </c>
       <c r="F38" s="158" t="str">
         <f t="shared" si="13"/>
@@ -13939,7 +13947,8 @@
         <v>214</v>
       </c>
       <c r="C40" s="163">
-        <v>0</v>
+        <f>0.2*Common_Shares/C4</f>
+        <v>48670.8</v>
       </c>
       <c r="D40" s="163">
         <v>113211</v>
@@ -13992,7 +14001,7 @@
       </c>
       <c r="C42" s="162">
         <f t="shared" ref="C42:M42" si="14">IF(C40="","",C40*$C$4/Common_Shares)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D42" s="162">
         <f t="shared" si="14"/>
@@ -14107,7 +14116,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14158,7 +14167,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14482,7 +14491,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14533,7 +14542,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14588,15 +14597,15 @@
       </c>
       <c r="C55" s="158">
         <f>C38*C54</f>
-        <v>0.56275084672827502</v>
+        <v>5.1681200209739542E-2</v>
       </c>
       <c r="D55" s="158">
         <f>IF(D38="","",D38*D54)</f>
-        <v>0.11129419832806374</v>
+        <v>4.8663050281096694E-2</v>
       </c>
       <c r="E55" s="158">
         <f t="shared" ref="E55:M55" si="25">IF(E38="","",E38*E54)</f>
-        <v>2.5919940939563142E-2</v>
+        <v>6.4799852348907852E-2</v>
       </c>
       <c r="F55" s="158" t="str">
         <f t="shared" si="25"/>
@@ -14649,7 +14658,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
@@ -16122,8 +16131,8 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -16279,7 +16288,7 @@
         <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16404,7 +16413,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16462,7 +16471,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="179">
         <v>347364</v>
@@ -16590,7 +16599,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16598,7 +16607,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16618,7 +16627,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16627,7 +16636,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16647,7 +16656,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16656,7 +16665,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16689,7 +16698,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16854,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17065,7 +17074,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17082,7 +17091,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17091,7 +17100,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17110,7 +17119,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17140,7 +17149,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17196,7 +17205,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17361,7 +17370,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17468,7 +17477,7 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="382">
-        <v>0.34289999999999998</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="E67" s="383"/>
       <c r="F67" s="109" t="s">
@@ -17484,7 +17493,7 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="382">
-        <v>0.34289999999999998</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="E68" s="383"/>
       <c r="F68" s="6"/>
@@ -17526,10 +17535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L880"/>
+  <dimension ref="A1:L877"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -17556,7 +17565,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="316">
         <f>IF(I3="",IF(H3="",1,2),3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="115" t="s">
         <v>218</v>
@@ -17598,13 +17607,13 @@
         <f>EOMONTH(EDATE(F3,12),0)</f>
         <v>45473</v>
       </c>
-      <c r="H3" s="194" t="str">
-        <f>IF(H10="","",EOMONTH(EDATE(G3,12),0))</f>
-        <v/>
-      </c>
-      <c r="I3" s="194" t="str">
-        <f>IF(I17="","",EOMONTH(EDATE(H3,12),0))</f>
-        <v/>
+      <c r="H3" s="194">
+        <f>IF(H7="","",EOMONTH(EDATE(G3,12),0))</f>
+        <v>45838</v>
+      </c>
+      <c r="I3" s="194">
+        <f>IF(I14="","",EOMONTH(EDATE(H3,12),0))</f>
+        <v>46203</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>117</v>
@@ -17612,661 +17621,635 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C4" s="205">
-        <v>1600216</v>
+        <v>5119040</v>
       </c>
       <c r="D4" s="205">
-        <v>2562909</v>
+        <v>4956534</v>
       </c>
       <c r="E4" s="205">
-        <v>5067853</v>
+        <v>5283560</v>
       </c>
       <c r="F4" s="205">
-        <v>7494766</v>
+        <v>4326192</v>
       </c>
       <c r="G4" s="205">
-        <f>(3706212*1.08)*2</f>
-        <v>8005417.9200000009</v>
-      </c>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
+        <f>F4*0.95</f>
+        <v>4109882.4</v>
+      </c>
+      <c r="H4" s="206">
+        <f>G4*1.1</f>
+        <v>4520870.6400000006</v>
+      </c>
+      <c r="I4" s="206">
+        <f>H4*1.1</f>
+        <v>4972957.7040000008</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C5" s="196">
-        <v>1306273</v>
+        <v>397</v>
       </c>
       <c r="D5" s="196">
-        <v>1152691</v>
+        <v>804714</v>
       </c>
       <c r="E5" s="196">
-        <v>1440522</v>
+        <v>823075</v>
       </c>
       <c r="F5" s="196">
-        <v>1607278</v>
+        <v>792746</v>
       </c>
       <c r="G5" s="196">
-        <f>(768202*0.95)*2</f>
-        <v>1459583.8</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
+        <f>F5*0.9</f>
+        <v>713471.4</v>
+      </c>
+      <c r="H5" s="197">
+        <f>G5*1.1</f>
+        <v>784818.54</v>
+      </c>
+      <c r="I5" s="197">
+        <f>E5</f>
+        <v>823075</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="43"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B6" s="118" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="196">
-        <v>204561</v>
-      </c>
-      <c r="D6" s="196">
-        <v>207215</v>
-      </c>
-      <c r="E6" s="196">
-        <v>435503</v>
-      </c>
-      <c r="F6" s="196">
-        <v>680320</v>
-      </c>
-      <c r="G6" s="196">
-        <f>(351245*1.1)*2</f>
-        <v>772739.00000000012</v>
-      </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="198">
+        <f>Data!F7</f>
+        <v>5119437</v>
+      </c>
+      <c r="D6" s="198">
+        <f>Data!E7</f>
+        <v>5761248</v>
+      </c>
+      <c r="E6" s="198">
+        <f>Data!D7</f>
+        <v>6106635</v>
+      </c>
+      <c r="F6" s="198">
+        <f>Data!C7</f>
+        <v>5118938</v>
+      </c>
+      <c r="G6" s="200">
+        <f>G4+G5</f>
+        <v>4823353.8</v>
+      </c>
+      <c r="H6" s="200">
+        <f>H4+H5</f>
+        <v>5305689.1800000006</v>
+      </c>
+      <c r="I6" s="201">
+        <f>I4+I5</f>
+        <v>5796032.7040000008</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="43"/>
       <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B7" s="118" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="196">
-        <v>127850</v>
-      </c>
-      <c r="D7" s="196">
-        <v>263079</v>
-      </c>
-      <c r="E7" s="196">
-        <v>334185</v>
-      </c>
-      <c r="F7" s="196">
-        <v>543408</v>
-      </c>
-      <c r="G7" s="196">
-        <f>(170734*0.9)*2</f>
-        <v>307321.2</v>
-      </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
+      <c r="B7" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="285"/>
+      <c r="D7" s="171">
+        <f>D6/C6-1</f>
+        <v>0.12536749646494338</v>
+      </c>
+      <c r="E7" s="171">
+        <f>E6/D6-1</f>
+        <v>5.9950031659806946E-2</v>
+      </c>
+      <c r="F7" s="171">
+        <f>Data!C8</f>
+        <v>-0.16174161383478791</v>
+      </c>
+      <c r="G7" s="149">
+        <f>G6/F6-1</f>
+        <v>-5.7743266279060235E-2</v>
+      </c>
+      <c r="H7" s="149">
+        <f>H6/G6-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I7" s="180">
+        <f>I6/H6-1</f>
+        <v>9.2418441292861475E-2</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="43"/>
       <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B8" s="118" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="196">
-        <v>335078</v>
-      </c>
-      <c r="D8" s="196">
-        <v>341020</v>
-      </c>
-      <c r="E8" s="196">
-        <v>459880</v>
-      </c>
-      <c r="F8" s="196">
-        <v>396589</v>
-      </c>
-      <c r="G8" s="196">
-        <f>(213824*0.8)*2</f>
-        <v>342118.40000000002</v>
-      </c>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
+      <c r="B8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="202">
+        <f>Data!F9</f>
+        <v>3925837</v>
+      </c>
+      <c r="D8" s="202">
+        <f>Data!E9</f>
+        <v>4476856</v>
+      </c>
+      <c r="E8" s="202">
+        <f>Data!D9</f>
+        <v>4963246</v>
+      </c>
+      <c r="F8" s="202">
+        <f>Data!C9</f>
+        <v>4242965</v>
+      </c>
+      <c r="G8" s="203">
+        <f>G6*(1-G9)</f>
+        <v>4051617.1919999998</v>
+      </c>
+      <c r="H8" s="204">
+        <f>IF(H6="","",H6*(1-H9))</f>
+        <v>4312267.0013646279</v>
+      </c>
+      <c r="I8" s="204">
+        <f>IF(I6="","",I6*(1-I9))</f>
+        <v>4694786.4902400011</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="36"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="198">
-        <f>Data!F7</f>
-        <v>5119437</v>
-      </c>
-      <c r="D9" s="198">
-        <f>Data!E7</f>
-        <v>5761248</v>
-      </c>
-      <c r="E9" s="198">
-        <f>Data!D7</f>
-        <v>6106635</v>
-      </c>
-      <c r="F9" s="198">
-        <f>Data!C7</f>
-        <v>5118938</v>
-      </c>
-      <c r="G9" s="200">
-        <f>F9</f>
-        <v>5118938</v>
-      </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="96">
+        <f t="shared" ref="C9:E9" si="0">(C6-C8)/C6</f>
+        <v>0.23315063746267412</v>
+      </c>
+      <c r="D9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.2229364193313671</v>
+      </c>
+      <c r="E9" s="96">
+        <f t="shared" si="0"/>
+        <v>0.18723716089139109</v>
+      </c>
+      <c r="F9" s="96">
+        <f>(F6-F8)/F6</f>
+        <v>0.17112397141750887</v>
+      </c>
+      <c r="G9" s="208">
+        <v>0.16</v>
+      </c>
+      <c r="H9" s="208">
+        <f>E9</f>
+        <v>0.18723716089139109</v>
+      </c>
+      <c r="I9" s="208">
+        <v>0.19</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="43"/>
-      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B10" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="285"/>
-      <c r="D10" s="171">
-        <f>D9/C9-1</f>
-        <v>0.12536749646494338</v>
-      </c>
-      <c r="E10" s="171">
-        <f>E9/D9-1</f>
-        <v>5.9950031659806946E-2</v>
-      </c>
-      <c r="F10" s="171">
-        <f>Data!C8</f>
-        <v>-0.16174161383478791</v>
-      </c>
-      <c r="G10" s="149">
-        <f>G9/F9-1</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="180"/>
+      <c r="B10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="51">
+        <f>C6-C8</f>
+        <v>1193600</v>
+      </c>
+      <c r="D10" s="51">
+        <f t="shared" ref="D10:E10" si="1">D6-D8</f>
+        <v>1284392</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="1"/>
+        <v>1143389</v>
+      </c>
+      <c r="F10" s="51">
+        <f>F6-F8</f>
+        <v>875973</v>
+      </c>
+      <c r="G10" s="51">
+        <f>G6-G8</f>
+        <v>771736.60800000001</v>
+      </c>
+      <c r="H10" s="51">
+        <f>IF(H7="","",H6-H8)</f>
+        <v>993422.17863537278</v>
+      </c>
+      <c r="I10" s="51">
+        <f>IF(I7="","",I6-I8)</f>
+        <v>1101246.2137599997</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="43"/>
-      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="202">
-        <f>Data!F9</f>
-        <v>3925837</v>
-      </c>
-      <c r="D11" s="202">
-        <f>Data!E9</f>
-        <v>4476856</v>
-      </c>
-      <c r="E11" s="202">
-        <f>Data!D9</f>
-        <v>4963246</v>
-      </c>
-      <c r="F11" s="202">
-        <f>Data!C9</f>
-        <v>4242965</v>
-      </c>
-      <c r="G11" s="203">
-        <f>F11</f>
-        <v>4242965</v>
-      </c>
-      <c r="H11" s="204" t="str">
-        <f>IF(H9="","",H9*(1-H12))</f>
-        <v/>
-      </c>
-      <c r="I11" s="204" t="str">
-        <f>IF(I9="","",I9*(1-I12))</f>
-        <v/>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="54">
+        <f>C12/C6</f>
+        <v>0.16828471568260339</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" ref="D11:E11" si="2">D12/D6</f>
+        <v>0.15783420536661502</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="2"/>
+        <v>0.14702941963945773</v>
+      </c>
+      <c r="F11" s="54">
+        <f>F12/F6</f>
+        <v>0.16221724115431754</v>
+      </c>
+      <c r="G11" s="207">
+        <v>0.159</v>
+      </c>
+      <c r="H11" s="180">
+        <f>H12/H6</f>
+        <v>0.14454545454545453</v>
+      </c>
+      <c r="I11" s="180">
+        <v>0.15</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="96">
-        <f t="shared" ref="C12:E12" si="0">(C9-C11)/C9</f>
-        <v>0.23315063746267412</v>
-      </c>
-      <c r="D12" s="96">
-        <f t="shared" si="0"/>
-        <v>0.2229364193313671</v>
-      </c>
-      <c r="E12" s="96">
-        <f t="shared" si="0"/>
-        <v>0.18723716089139109</v>
-      </c>
-      <c r="F12" s="96">
-        <f>(F9-F11)/F9</f>
-        <v>0.17112397141750887</v>
-      </c>
-      <c r="G12" s="208">
-        <f>(G9-G11)/G9</f>
-        <v>0.17112397141750887</v>
-      </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
+      <c r="B12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="198">
+        <f>Data!F11</f>
+        <v>861523</v>
+      </c>
+      <c r="D12" s="198">
+        <f>Data!E11</f>
+        <v>909322</v>
+      </c>
+      <c r="E12" s="198">
+        <f>Data!D11</f>
+        <v>897855</v>
+      </c>
+      <c r="F12" s="198">
+        <f>Data!C11</f>
+        <v>830380</v>
+      </c>
+      <c r="G12" s="161">
+        <f>G6*G11</f>
+        <v>766913.25419999997</v>
+      </c>
+      <c r="H12" s="161">
+        <f>G12</f>
+        <v>766913.25419999997</v>
+      </c>
+      <c r="I12" s="161">
+        <f>I6*I11</f>
+        <v>869404.90560000006</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B13" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" s="51">
-        <f>C9-C11</f>
-        <v>1193600</v>
-      </c>
-      <c r="D13" s="51">
-        <f t="shared" ref="D13:E13" si="1">D9-D11</f>
-        <v>1284392</v>
-      </c>
-      <c r="E13" s="51">
-        <f t="shared" si="1"/>
-        <v>1143389</v>
-      </c>
-      <c r="F13" s="51">
-        <f>F9-F11</f>
-        <v>875973</v>
-      </c>
-      <c r="G13" s="51">
-        <f>G9-G11</f>
-        <v>875973</v>
-      </c>
-      <c r="H13" s="51" t="str">
-        <f>IF(H10="","",H9-H11)</f>
-        <v/>
-      </c>
-      <c r="I13" s="51" t="str">
-        <f>IF(I10="","",I9-I11)</f>
-        <v/>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="166">
+        <f t="shared" ref="C13:E13" si="3">C15/C6</f>
+        <v>6.4865921780070737E-2</v>
+      </c>
+      <c r="D13" s="166">
+        <f t="shared" si="3"/>
+        <v>6.5102213964752076E-2</v>
+      </c>
+      <c r="E13" s="166">
+        <f t="shared" si="3"/>
+        <v>4.0207741251933347E-2</v>
+      </c>
+      <c r="F13" s="166">
+        <f>F15/F6</f>
+        <v>8.9067302631913106E-3</v>
+      </c>
+      <c r="G13" s="166">
+        <f>G15/G6</f>
+        <v>1.0000000000000085E-3</v>
+      </c>
+      <c r="H13" s="166">
+        <f>IF(H7="","",H15/H6)</f>
+        <v>4.2691706345936532E-2</v>
+      </c>
+      <c r="I13" s="166">
+        <f>IF(I7="","",I15/I6)</f>
+        <v>3.9999999999999938E-2</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="43"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="B14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="54">
-        <f>C15/C9</f>
-        <v>0.16828471568260339</v>
-      </c>
-      <c r="D14" s="54">
-        <f t="shared" ref="D14:E14" si="2">D15/D9</f>
-        <v>0.15783420536661502</v>
-      </c>
-      <c r="E14" s="54">
-        <f t="shared" si="2"/>
-        <v>0.14702941963945773</v>
-      </c>
-      <c r="F14" s="54">
-        <f>F15/F9</f>
-        <v>0.16221724115431754</v>
-      </c>
-      <c r="G14" s="207">
-        <f>F14</f>
-        <v>0.16221724115431754</v>
-      </c>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="198">
-        <f>Data!F11</f>
-        <v>861523</v>
-      </c>
-      <c r="D15" s="198">
-        <f>Data!E11</f>
-        <v>909322</v>
-      </c>
-      <c r="E15" s="198">
-        <f>Data!D11</f>
-        <v>897855</v>
-      </c>
-      <c r="F15" s="198">
-        <f>Data!C11</f>
-        <v>830380</v>
-      </c>
-      <c r="G15" s="161">
-        <f>F15</f>
-        <v>830380</v>
-      </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="166">
-        <f t="shared" ref="C16:E16" si="3">C18/C9</f>
-        <v>6.4865921780070737E-2</v>
-      </c>
-      <c r="D16" s="166">
-        <f t="shared" si="3"/>
-        <v>6.5102213964752076E-2</v>
-      </c>
-      <c r="E16" s="166">
-        <f t="shared" si="3"/>
-        <v>4.0207741251933347E-2</v>
-      </c>
-      <c r="F16" s="166">
-        <f>F18/F9</f>
-        <v>8.9067302631913106E-3</v>
-      </c>
-      <c r="G16" s="166">
-        <f>G18/G9</f>
-        <v>8.9067302631913106E-3</v>
-      </c>
-      <c r="H16" s="166" t="str">
-        <f>IF(H10="","",H18/H9)</f>
-        <v/>
-      </c>
-      <c r="I16" s="166" t="str">
-        <f>IF(I10="","",I18/I9)</f>
-        <v/>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B17" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="285"/>
-      <c r="D17" s="171">
-        <f t="shared" ref="D17:E17" si="4">D18/C18-1</f>
+      <c r="C14" s="285"/>
+      <c r="D14" s="171">
+        <f t="shared" ref="D14:E14" si="4">D15/C15-1</f>
         <v>0.12946696097591825</v>
       </c>
-      <c r="E17" s="171">
+      <c r="E14" s="171">
         <f t="shared" si="4"/>
         <v>-0.34536486522515797</v>
       </c>
-      <c r="F17" s="171">
-        <f>F18/E18-1</f>
+      <c r="F14" s="171">
+        <f>F15/E15-1</f>
         <v>-0.81431084900665485</v>
       </c>
-      <c r="G17" s="149">
-        <f>IF(ABS(F18+G18)=ABS(F18)+ABS(G18),IF(G18&lt;0,-1,1)*(G18-F18)/F18,"Turn")</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="149" t="str">
-        <f>IF(H10="","",IF(ABS(G18+H18)=ABS(G18)+ABS(H18),IF(H18&lt;0,-1,1)*(H18-G18)/G18,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="I17" s="149" t="str">
-        <f>IF(I10="","",IF(ABS(H18+I18)=ABS(H18)+ABS(I18),IF(I18&lt;0,-1,1)*(I18-H18)/H18,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B18" s="5" t="s">
+      <c r="G14" s="149">
+        <f>IF(ABS(F15+G15)=ABS(F15)+ABS(G15),IF(G15&lt;0,-1,1)*(G15-F15)/F15,"Turn")</f>
+        <v>-0.89420845743864097</v>
+      </c>
+      <c r="H14" s="149">
+        <f>IF(H7="","",IF(ABS(G15+H15)=ABS(G15)+ABS(H15),IF(H15&lt;0,-1,1)*(H15-G15)/G15,"Turn"))</f>
+        <v>45.96087698052979</v>
+      </c>
+      <c r="I14" s="149">
+        <f>IF(I7="","",IF(ABS(H15+I15)=ABS(H15)+ABS(I15),IF(I15&lt;0,-1,1)*(I15-H15)/H15,"Turn"))</f>
+        <v>2.3541605426448793E-2</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B15" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="154">
-        <f t="shared" ref="C18:D18" si="5">C13-C15</f>
+      <c r="C15" s="154">
+        <f t="shared" ref="C15:D15" si="5">C10-C12</f>
         <v>332077</v>
       </c>
-      <c r="D18" s="154">
+      <c r="D15" s="154">
         <f t="shared" si="5"/>
         <v>375070</v>
       </c>
-      <c r="E18" s="154">
-        <f>E13-E15</f>
+      <c r="E15" s="154">
+        <f>E10-E12</f>
         <v>245534</v>
       </c>
-      <c r="F18" s="154">
-        <f>F13-F15</f>
+      <c r="F15" s="154">
+        <f>F10-F12</f>
         <v>45593</v>
       </c>
-      <c r="G18" s="154">
-        <f>G13-G15</f>
-        <v>45593</v>
-      </c>
-      <c r="H18" s="154" t="str">
-        <f>IF(H10="","",H13-H15)</f>
-        <v/>
-      </c>
-      <c r="I18" s="154" t="str">
-        <f>IF(I10="","",I13-I15)</f>
-        <v/>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B19" s="209" t="s">
+      <c r="G15" s="154">
+        <f>G10-G12</f>
+        <v>4823.3538000000408</v>
+      </c>
+      <c r="H15" s="154">
+        <f>IF(H7="","",H10-H12)</f>
+        <v>226508.92443537281</v>
+      </c>
+      <c r="I15" s="154">
+        <f>IF(I7="","",I10-I12)</f>
+        <v>231841.30815999967</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B16" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="211">
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="211">
         <v>0.25</v>
       </c>
-      <c r="G19" s="166">
-        <f>IF(G18="","",F19)</f>
+      <c r="G16" s="166">
+        <f>IF(G15="","",F16)</f>
         <v>0.25</v>
       </c>
-      <c r="H19" s="166" t="str">
-        <f>IF(H18="","",G19)</f>
-        <v/>
-      </c>
-      <c r="I19" s="166" t="str">
-        <f>IF(I18="","",H19)</f>
-        <v/>
-      </c>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B20" s="14" t="s">
+      <c r="H16" s="166">
+        <f>IF(H15="","",G16)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="166">
+        <f>IF(I15="","",H16)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B17" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="285"/>
-      <c r="D20" s="285"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="171">
-        <f>F21/F9</f>
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="171">
+        <f>F18/F6</f>
         <v>6.680047697393483E-3</v>
       </c>
-      <c r="G20" s="149">
-        <f>G21/G9</f>
-        <v>6.680047697393483E-3</v>
-      </c>
-      <c r="H20" s="149" t="str">
-        <f>IF(H9="","",H21/H9)</f>
-        <v/>
-      </c>
-      <c r="I20" s="149" t="str">
-        <f>IF(I9="","",I21/I9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B21" s="85" t="s">
+      <c r="G17" s="149">
+        <f>G18/G6</f>
+        <v>7.5000000000000641E-4</v>
+      </c>
+      <c r="H17" s="149">
+        <f>IF(H6="","",H18/H6)</f>
+        <v>3.2018779759452401E-2</v>
+      </c>
+      <c r="I17" s="149">
+        <f>IF(I6="","",I18/I6)</f>
+        <v>2.9999999999999954E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B18" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="51">
-        <f>IF(F18&lt;=0,F18,F18*(1-F19))</f>
+      <c r="C18" s="286"/>
+      <c r="D18" s="286"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="51">
+        <f>IF(F15&lt;=0,F15,F15*(1-F16))</f>
         <v>34194.75</v>
       </c>
-      <c r="G21" s="210">
-        <f>IF(G18="","",IF(G18&lt;=0,G18,G18*(1-G19)))</f>
-        <v>34194.75</v>
-      </c>
-      <c r="H21" s="210" t="str">
-        <f>IF(H18="","",IF(H18&lt;=0,H18,H18*(1-H19)))</f>
-        <v/>
-      </c>
-      <c r="I21" s="210" t="str">
-        <f>IF(I18="","",IF(I18&lt;=0,I18,I18*(1-I19)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="287"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="212">
+      <c r="G18" s="210">
+        <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
+        <v>3617.5153500000306</v>
+      </c>
+      <c r="H18" s="210">
+        <f>IF(H15="","",IF(H15&lt;=0,H15,H15*(1-H16)))</f>
+        <v>169881.69332652961</v>
+      </c>
+      <c r="I18" s="210">
+        <f>IF(I15="","",IF(I15&lt;=0,I15,I15*(1-I16)))</f>
+        <v>173880.98111999975</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="287"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="212">
         <f>Data!C35</f>
         <v>0</v>
       </c>
-      <c r="G22" s="213">
-        <f>IF(G10&lt;=0,0,(G9-F9)*Asset_Model!$D$67)</f>
+      <c r="G19" s="213">
+        <f>IF(G7&lt;=0,0,(G6-F6)*Asset_Model!$D$67)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="213" t="str">
-        <f>IF(H9="","",IF(H10&lt;=0,0,(H9-G9)*Asset_Model!$D$67))</f>
-        <v/>
-      </c>
-      <c r="I22" s="213" t="str">
-        <f>IF(I9="","",IF(I10&lt;=0,0,(I9-H9)*Asset_Model!$D$67))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B23" s="318" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="319"/>
-      <c r="D23" s="319">
-        <v>140695</v>
-      </c>
-      <c r="E23" s="319">
-        <v>157454</v>
-      </c>
-      <c r="F23" s="319">
-        <v>160871</v>
-      </c>
-      <c r="G23" s="320">
-        <f>F23</f>
-        <v>160871</v>
-      </c>
-      <c r="H23" s="320"/>
-      <c r="I23" s="320"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B24" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C24" s="288"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="95">
+      <c r="H19" s="213">
+        <f>IF(H6="","",IF(H7&lt;=0,0,(H6-G6)*Asset_Model!$D$67))</f>
+        <v>32605.871688000054</v>
+      </c>
+      <c r="I19" s="213">
+        <f>IF(I6="","",IF(I7&lt;=0,0,(I6-H6)*Asset_Model!$D$67))</f>
+        <v>33147.222222400014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B20" s="318" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="319"/>
+      <c r="D20" s="319">
+        <v>62914</v>
+      </c>
+      <c r="E20" s="319">
+        <v>65977</v>
+      </c>
+      <c r="F20" s="319">
+        <f>E20</f>
+        <v>65977</v>
+      </c>
+      <c r="G20" s="320">
+        <f>F20</f>
+        <v>65977</v>
+      </c>
+      <c r="H20" s="320">
+        <f>G20</f>
+        <v>65977</v>
+      </c>
+      <c r="I20" s="320">
+        <f>H20</f>
+        <v>65977</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="95">
         <f>Data!C33</f>
-        <v>1176000</v>
-      </c>
-      <c r="G24" s="161">
-        <v>260000</v>
-      </c>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161" t="str">
-        <f>IF(I16="","",IF(ABS(H25+I25)=ABS(H25)+ABS(I25),IF(I25&lt;0,-1,1)*(I25-H25)/H25,"Turn"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B25" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="C25" s="289"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="214">
-        <f>F22-F23+F24</f>
-        <v>1015129</v>
-      </c>
-      <c r="G25" s="214">
-        <f>IF(G16="","",G22-G23+G24)</f>
-        <v>99129</v>
-      </c>
-      <c r="H25" s="214" t="str">
-        <f>IF(H16="","",H22-H23+H24)</f>
-        <v/>
-      </c>
-      <c r="I25" s="214" t="str">
-        <f>IF(I16="","",I22-I23+I24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B26" s="14" t="s">
+        <v>108000</v>
+      </c>
+      <c r="G21" s="161">
+        <f>F21</f>
+        <v>108000</v>
+      </c>
+      <c r="H21" s="161">
+        <f>G21</f>
+        <v>108000</v>
+      </c>
+      <c r="I21" s="161">
+        <f>H21</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="289"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="214">
+        <f>F19-F20+F21</f>
+        <v>42023</v>
+      </c>
+      <c r="G22" s="214">
+        <f>IF(G13="","",G19-G20+G21)</f>
+        <v>42023</v>
+      </c>
+      <c r="H22" s="214">
+        <f>IF(H13="","",H19-H20+H21)</f>
+        <v>74628.871688000057</v>
+      </c>
+      <c r="I22" s="214">
+        <f>IF(I13="","",I19-I20+I21)</f>
+        <v>75170.222222400014</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="285"/>
-      <c r="D26" s="285"/>
-      <c r="E26" s="285"/>
-      <c r="F26" s="171">
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="171">
         <f>AVERAGE(Data!C54:E54)</f>
         <v>7.6513669243682692E-2</v>
       </c>
-      <c r="G26" s="387"/>
-      <c r="H26" s="388"/>
-      <c r="I26" s="389"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B27" s="84" t="s">
+      <c r="G23" s="387"/>
+      <c r="H23" s="388"/>
+      <c r="I23" s="389"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="214">
-        <f>F21-F25</f>
-        <v>-980934.25</v>
-      </c>
-      <c r="G27" s="214">
-        <f>G21-G25</f>
-        <v>-64934.25</v>
-      </c>
-      <c r="H27" s="214" t="str">
-        <f>IF(H21="","",H21-H25)</f>
-        <v/>
-      </c>
-      <c r="I27" s="214" t="str">
-        <f>IF(I21="","",I21-I25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="214">
+        <f>F18-F22</f>
+        <v>-7828.25</v>
+      </c>
+      <c r="G24" s="214">
+        <f>G18-G22</f>
+        <v>-38405.484649999969</v>
+      </c>
+      <c r="H24" s="214">
+        <f>IF(H18="","",H18-H22)</f>
+        <v>95252.821638529553</v>
+      </c>
+      <c r="I24" s="214">
+        <f>IF(I18="","",I18-I22)</f>
+        <v>98710.758897599735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -19112,73 +19095,70 @@
     <row r="875" ht="15.75" customHeight="1"/>
     <row r="876" ht="15.75" customHeight="1"/>
     <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G23:I23"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="C23:G23">
+  <conditionalFormatting sqref="C20:G20">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C23))=0</formula>
+      <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:I23">
+  <conditionalFormatting sqref="C20:I20">
     <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(C23))=0</formula>
+      <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G21">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="containsBlanks" dxfId="12" priority="22">
-      <formula>LEN(TRIM(G19))=0</formula>
+      <formula>LEN(TRIM(G16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G23">
     <cfRule type="containsBlanks" dxfId="11" priority="11">
-      <formula>LEN(TRIM(G26))=0</formula>
+      <formula>LEN(TRIM(G23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14 H16:H18">
+  <conditionalFormatting sqref="H8:H11 H13:H15">
     <cfRule type="containsBlanks" priority="31">
-      <formula>LEN(TRIM(H11))=0</formula>
+      <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H22">
+  <conditionalFormatting sqref="H8:H19">
     <cfRule type="containsBlanks" dxfId="10" priority="30">
-      <formula>LEN(TRIM(H11))=0</formula>
+      <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I21">
+  <conditionalFormatting sqref="H18:I18">
     <cfRule type="containsBlanks" dxfId="9" priority="24">
-      <formula>LEN(TRIM(H21))=0</formula>
+      <formula>LEN(TRIM(H18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I25">
+  <conditionalFormatting sqref="H19:I22">
     <cfRule type="containsBlanks" dxfId="8" priority="3">
-      <formula>LEN(TRIM(H22))=0</formula>
+      <formula>LEN(TRIM(H19))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(H22))=0</formula>
+      <formula>LEN(TRIM(H19))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:I27">
+  <conditionalFormatting sqref="H24:I24">
     <cfRule type="containsBlanks" dxfId="7" priority="12">
-      <formula>LEN(TRIM(H27))=0</formula>
+      <formula>LEN(TRIM(H24))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="13">
-      <formula>LEN(TRIM(H27))=0</formula>
+      <formula>LEN(TRIM(H24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I18">
+  <conditionalFormatting sqref="I7:I15">
     <cfRule type="containsBlanks" priority="27">
-      <formula>LEN(TRIM(I10))=0</formula>
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I22">
+  <conditionalFormatting sqref="I7:I19">
     <cfRule type="containsBlanks" dxfId="6" priority="26">
-      <formula>LEN(TRIM(I10))=0</formula>
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -19191,7 +19171,7 @@
   <dimension ref="B18:S125"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P98" sqref="P98"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19255,7 +19235,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19279,7 +19259,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19303,7 +19283,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19327,7 +19307,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19351,7 +19331,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19416,7 +19396,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19509,7 +19489,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19561,7 +19541,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19577,7 +19557,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19593,7 +19573,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19609,7 +19589,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19618,7 +19598,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19669,7 +19649,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19678,7 +19658,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19687,7 +19667,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19731,7 +19711,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19752,28 +19732,28 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
-        <v>69000</v>
+        <v>108000</v>
       </c>
       <c r="K105" s="298">
         <f>Data!E33</f>
-        <v>56000</v>
+        <v>140000</v>
       </c>
       <c r="L105" s="298">
         <f>Data!D33</f>
-        <v>247000</v>
+        <v>108000</v>
       </c>
       <c r="M105" s="298">
         <f>Data!C33</f>
-        <v>1176000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19789,12 +19769,12 @@
       </c>
       <c r="M106" s="298">
         <f>Data!C40</f>
-        <v>0</v>
+        <v>48670.8</v>
       </c>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19813,7 +19793,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19829,12 +19809,12 @@
       </c>
       <c r="M108" s="298">
         <f>Data!C34</f>
-        <v>230000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19851,7 +19831,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19868,7 +19848,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19944,8 +19924,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -19982,7 +19962,7 @@
       </c>
       <c r="G2" s="115" t="str">
         <f>B21</f>
-        <v>TV after Year 1</v>
+        <v>TV after Year 3</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -20000,13 +19980,13 @@
         <f>Projections!G3</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="194" t="str">
+      <c r="E3" s="194">
         <f>Projections!H3</f>
-        <v/>
-      </c>
-      <c r="F3" s="194" t="str">
+        <v>45838</v>
+      </c>
+      <c r="F3" s="194">
         <f>Projections!I3</f>
-        <v/>
+        <v>46203</v>
       </c>
       <c r="G3" s="195" t="s">
         <v>217</v>
@@ -20020,28 +20000,28 @@
         <v>69</v>
       </c>
       <c r="C4" s="242">
-        <f>IF(B4="NOPAT",Projections!F21,Projections!F9)</f>
+        <f>IF(B4="NOPAT",Projections!F18,Projections!F6)</f>
         <v>34194.75</v>
       </c>
       <c r="D4" s="243">
-        <f>IF(B4="NOPAT",Projections!G21,Projections!G9)</f>
-        <v>34194.75</v>
-      </c>
-      <c r="E4" s="243" t="str">
-        <f>IF(Projections!H9="","",IF(B4="NOPAT",Projections!H21,Projections!H9))</f>
-        <v/>
-      </c>
-      <c r="F4" s="243" t="str">
-        <f>IF(Projections!I9="","",IF(B4="NOPAT",Projections!I21,Projections!I9))</f>
-        <v/>
+        <f>IF(B4="NOPAT",Projections!G18,Projections!G6)</f>
+        <v>3617.5153500000306</v>
+      </c>
+      <c r="E4" s="243">
+        <f>IF(Projections!H6="","",IF(B4="NOPAT",Projections!H18,Projections!H6))</f>
+        <v>169881.69332652961</v>
+      </c>
+      <c r="F4" s="243">
+        <f>IF(Projections!I6="","",IF(B4="NOPAT",Projections!I18,Projections!I6))</f>
+        <v>173880.98111999975</v>
       </c>
       <c r="G4" s="244">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -20053,15 +20033,15 @@
       <c r="C5" s="102"/>
       <c r="D5" s="241">
         <f>D4/C4-1</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="241" t="str">
+        <v>-0.89420845743864097</v>
+      </c>
+      <c r="E5" s="241">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v/>
-      </c>
-      <c r="F5" s="241" t="str">
+        <v>45.96087698052979</v>
+      </c>
+      <c r="F5" s="241">
         <f>IF(F4="","",F4/E4-1)</f>
-        <v/>
+        <v>2.3541605426448786E-2</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="6"/>
@@ -20075,14 +20055,20 @@
       </c>
       <c r="C6" s="171">
         <f>C7/C4</f>
-        <v>29.686691670504974</v>
+        <v>1.2289313417995453</v>
       </c>
       <c r="D6" s="171">
         <f>D7/D4</f>
-        <v>2.8989537867655124</v>
-      </c>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
+        <v>11.616536748074793</v>
+      </c>
+      <c r="E6" s="171">
+        <f>E7/E4</f>
+        <v>0.43929908059343331</v>
+      </c>
+      <c r="F6" s="171">
+        <f>F7/F4</f>
+        <v>0.43230847754719709</v>
+      </c>
       <c r="G6" s="285"/>
       <c r="H6" s="6"/>
       <c r="I6" s="45"/>
@@ -20092,18 +20078,21 @@
         <v>68</v>
       </c>
       <c r="C7" s="313">
-        <f>Projections!F25</f>
-        <v>1015129</v>
+        <f>Projections!F22</f>
+        <v>42023</v>
       </c>
       <c r="D7" s="313">
-        <f>Projections!G25</f>
-        <v>99129</v>
-      </c>
-      <c r="E7" s="247" t="str">
-        <f>Projections!H25</f>
-        <v/>
-      </c>
-      <c r="F7" s="247"/>
+        <f>Projections!G22</f>
+        <v>42023</v>
+      </c>
+      <c r="E7" s="247">
+        <f>Projections!H22</f>
+        <v>74628.871688000057</v>
+      </c>
+      <c r="F7" s="247">
+        <f>Projections!I22</f>
+        <v>75170.222222400014</v>
+      </c>
       <c r="G7" s="103"/>
       <c r="H7" s="49"/>
       <c r="I7" s="35"/>
@@ -20115,20 +20104,20 @@
         <v>FCFF</v>
       </c>
       <c r="C8" s="51">
-        <f>IF(C4="","",Projections!F21-C7)</f>
-        <v>-980934.25</v>
+        <f>IF(C4="","",Projections!F18-C7)</f>
+        <v>-7828.25</v>
       </c>
       <c r="D8" s="210">
-        <f>Projections!G21-D7</f>
-        <v>-64934.25</v>
-      </c>
-      <c r="E8" s="210" t="str">
-        <f>IF(E4="","",Projections!H21-E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="210" t="str">
-        <f>IF(F4="","",Projections!I21-F7)</f>
-        <v/>
+        <f>Projections!G18-D7</f>
+        <v>-38405.484649999969</v>
+      </c>
+      <c r="E8" s="210">
+        <f>IF(E4="","",Projections!H18-E7)</f>
+        <v>95252.821638529553</v>
+      </c>
+      <c r="F8" s="210">
+        <f>IF(F4="","",Projections!I18-F7)</f>
+        <v>98710.758897599735</v>
       </c>
       <c r="G8" s="315"/>
       <c r="H8" s="49"/>
@@ -20142,23 +20131,23 @@
       </c>
       <c r="C9" s="167">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>-4.0308942939092844</v>
+        <v>-3.2168158320800153E-2</v>
       </c>
       <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.26683041988214701</v>
-      </c>
-      <c r="E9" s="248" t="str">
+        <v>-0.15781735516983478</v>
+      </c>
+      <c r="E9" s="248">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="F9" s="248" t="str">
+        <v>0.39141670832831821</v>
+      </c>
+      <c r="F9" s="248">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
-        <v/>
+        <v>0.4056262025592336</v>
       </c>
       <c r="G9" s="249">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Common_Shares</f>
-        <v>-0.26683041988214701</v>
+        <v>0.40562620255923365</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -20169,13 +20158,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="246"/>
-      <c r="D10" s="149" t="str">
-        <f>IF(Projections!$E2=1,"",Dashboard!C12)</f>
-        <v/>
-      </c>
-      <c r="E10" s="149" t="str">
-        <f>IF(Projections!$E2=2,"",IF(E4="","",D10))</f>
-        <v/>
+      <c r="D10" s="149">
+        <f ca="1">IF(Projections!$E2=1,"",Dashboard!C12)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="149">
+        <f ca="1">IF(Projections!$E2=2,"",IF(E4="","",D10))</f>
+        <v>0.08</v>
       </c>
       <c r="F10" s="149" t="str">
         <f>IF(Projections!$E2=3,"",IF(F4="","",D10))</f>
@@ -20194,13 +20183,13 @@
         <v>125</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="250" t="str">
-        <f>IF(D10="","",1+D10)</f>
-        <v/>
-      </c>
-      <c r="E11" s="250" t="str">
-        <f>IF(E10="","",(1+D10)*(1+E10))</f>
-        <v/>
+      <c r="D11" s="250">
+        <f ca="1">IF(D10="","",1+D10)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E11" s="250">
+        <f ca="1">IF(E10="","",(1+D10)*(1+E10))</f>
+        <v>1.1664000000000001</v>
       </c>
       <c r="F11" s="250" t="str">
         <f>IF(F10="","",(1+D10)*(1+E10)*(1+F10))</f>
@@ -20208,7 +20197,7 @@
       </c>
       <c r="G11" s="250">
         <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
-        <v>1.08</v>
+        <v>1.2597120000000002</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="36"/>
@@ -20220,13 +20209,13 @@
         <v>PV FCFF per share</v>
       </c>
       <c r="C12" s="251"/>
-      <c r="D12" s="252" t="str">
-        <f>IF(D11="","",D9/D11)</f>
-        <v/>
-      </c>
-      <c r="E12" s="252" t="str">
-        <f>IF(E11="","",E9/E11)</f>
-        <v/>
+      <c r="D12" s="252">
+        <f ca="1">IF(D11="","",D9/D11)</f>
+        <v>-0.14612718071280997</v>
+      </c>
+      <c r="E12" s="252">
+        <f ca="1">IF(E11="","",E9/E11)</f>
+        <v>0.33557673896460749</v>
       </c>
       <c r="F12" s="252" t="str">
         <f>IF(F11="","",F9/F11)</f>
@@ -20362,7 +20351,7 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="81" t="str">
         <f>"TV after Year "&amp;G4</f>
-        <v>TV after Year 1</v>
+        <v>TV after Year 3</v>
       </c>
       <c r="C21" s="265" t="s">
         <v>189</v>
@@ -20392,16 +20381,16 @@
       </c>
       <c r="D22" s="268"/>
       <c r="E22" s="239">
-        <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>-0.26683041988214701</v>
+        <f ca="1">IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
+        <v>1.9319949443645861</v>
       </c>
       <c r="F22" s="239">
-        <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>6.1249971235319736</v>
+        <f ca="1">SUM(D12:F12)+E22+$G$16</f>
+        <v>8.5132720460305045</v>
       </c>
       <c r="G22" s="271">
-        <f>F22*Exchange_Rate</f>
-        <v>6.1249971235319736</v>
+        <f ca="1">F22*Exchange_Rate</f>
+        <v>8.5132720460305045</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20414,19 +20403,19 @@
       </c>
       <c r="D23" s="270"/>
       <c r="E23" s="98">
-        <f>IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>-0.26683041988214701</v>
+        <f ca="1">IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
+        <v>3.8639898887291722</v>
       </c>
       <c r="F23" s="98">
-        <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>6.1249971235319736</v>
+        <f ca="1">SUM(D12:F12)+E23+$G$16</f>
+        <v>10.445266990395091</v>
       </c>
       <c r="G23" s="272">
-        <f>F23*Exchange_Rate</f>
-        <v>6.1249971235319736</v>
+        <f ca="1">F23*Exchange_Rate</f>
+        <v>10.445266990395091</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
@@ -20437,8 +20426,8 @@
       </c>
       <c r="F24" s="392"/>
       <c r="G24" s="143">
-        <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>6.1249971235319736</v>
+        <f ca="1">MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
+        <v>9.8402207165345175</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20461,7 +20450,7 @@
       </c>
       <c r="G26" s="115" t="str">
         <f>G2</f>
-        <v>TV after Year 1</v>
+        <v>TV after Year 3</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -20479,13 +20468,13 @@
         <f>D3</f>
         <v>45473</v>
       </c>
-      <c r="E27" s="194" t="str">
+      <c r="E27" s="194">
         <f>E3</f>
-        <v/>
-      </c>
-      <c r="F27" s="194" t="str">
+        <v>45838</v>
+      </c>
+      <c r="F27" s="194">
         <f>F3</f>
-        <v/>
+        <v>46203</v>
       </c>
       <c r="G27" s="195" t="str">
         <f>G3</f>
@@ -20501,19 +20490,19 @@
       </c>
       <c r="C28" s="51">
         <f>C8</f>
-        <v>-980934.25</v>
+        <v>-7828.25</v>
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-64934.25</v>
-      </c>
-      <c r="E28" s="51" t="str">
+        <v>-38405.484649999969</v>
+      </c>
+      <c r="E28" s="51">
         <f>E8</f>
-        <v/>
-      </c>
-      <c r="F28" s="51" t="str">
+        <v>95252.821638529553</v>
+      </c>
+      <c r="F28" s="51">
         <f>F8</f>
-        <v/>
+        <v>98710.758897599735</v>
       </c>
       <c r="G28" s="161"/>
       <c r="I28" s="43" t="s">
@@ -20530,8 +20519,12 @@
       <c r="D29" s="207">
         <v>0.04</v>
       </c>
-      <c r="E29" s="180"/>
-      <c r="F29" s="207"/>
+      <c r="E29" s="180">
+        <v>0.04</v>
+      </c>
+      <c r="F29" s="207">
+        <v>0.04</v>
+      </c>
       <c r="G29" s="207"/>
       <c r="I29" s="43"/>
     </row>
@@ -20544,11 +20537,14 @@
         <v>4181</v>
       </c>
       <c r="D30" s="150">
-        <f>C30*1.1</f>
-        <v>4599.1000000000004</v>
-      </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="161">
+        <v>0</v>
+      </c>
+      <c r="F30" s="161">
+        <v>0</v>
+      </c>
       <c r="G30" s="161"/>
       <c r="I30" s="43" t="s">
         <v>308</v>
@@ -20559,20 +20555,20 @@
         <v>312</v>
       </c>
       <c r="C31" s="171">
-        <f>Projections!F19</f>
+        <f>Projections!F16</f>
         <v>0.25</v>
       </c>
       <c r="D31" s="171">
-        <f>Projections!G19</f>
+        <f>Projections!G16</f>
         <v>0.25</v>
       </c>
-      <c r="E31" s="171" t="str">
-        <f>Projections!H19</f>
-        <v/>
-      </c>
-      <c r="F31" s="171" t="str">
-        <f>Projections!I19</f>
-        <v/>
+      <c r="E31" s="171">
+        <f>Projections!H16</f>
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="171">
+        <f>Projections!I16</f>
+        <v>0.25</v>
       </c>
       <c r="G31" s="171"/>
       <c r="I31" s="43"/>
@@ -20582,20 +20578,20 @@
         <v>311</v>
       </c>
       <c r="C32" s="276">
-        <f>C30*(C29*(1-Projections!F19))</f>
+        <f>C30*(C29*(1-Projections!F16))</f>
         <v>125.42999999999999</v>
       </c>
       <c r="D32" s="276">
         <f>(D30*D29)*(1-D31)</f>
-        <v>137.97300000000001</v>
-      </c>
-      <c r="E32" s="277" t="str">
+        <v>0</v>
+      </c>
+      <c r="E32" s="277">
         <f>IF(E28="","",(E30*E29)*(1-E31))</f>
-        <v/>
-      </c>
-      <c r="F32" s="277" t="str">
+        <v>0</v>
+      </c>
+      <c r="F32" s="277">
         <f>IF(F28="","",(F30*F29)*(1-F31))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G32" s="276"/>
       <c r="I32" s="43"/>
@@ -20606,19 +20602,19 @@
       </c>
       <c r="C33" s="51">
         <f>C28-C32</f>
-        <v>-981059.68</v>
+        <v>-7953.68</v>
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-65072.222999999998</v>
-      </c>
-      <c r="E33" s="210" t="str">
+        <v>-38405.484649999969</v>
+      </c>
+      <c r="E33" s="210">
         <f>IF(E28="","",E28-E32)</f>
-        <v/>
-      </c>
-      <c r="F33" s="210" t="str">
+        <v>95252.821638529553</v>
+      </c>
+      <c r="F33" s="210">
         <f>IF(F28="","",F28-F32)</f>
-        <v/>
+        <v>98710.758897599735</v>
       </c>
       <c r="G33" s="317"/>
       <c r="I33" s="43" t="s">
@@ -20631,23 +20627,23 @@
       </c>
       <c r="C34" s="139">
         <f>C33/(Common_Shares/Data!$C$4)</f>
-        <v>-4.0314097158871443</v>
+        <v>-3.2683580298659566E-2</v>
       </c>
       <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.26739738405779234</v>
-      </c>
-      <c r="E34" s="245" t="str">
+        <v>-0.15781735516983478</v>
+      </c>
+      <c r="E34" s="245">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="F34" s="245" t="str">
+        <v>0.39141670832831821</v>
+      </c>
+      <c r="F34" s="245">
         <f>IF(F33="","",F33/(Common_Shares/Data!$C$4))</f>
-        <v/>
+        <v>0.4056262025592336</v>
       </c>
       <c r="G34" s="139">
         <f>INDEX(D34:F34,Projections!E2)</f>
-        <v>-0.26739738405779234</v>
+        <v>0.4056262025592336</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -20658,15 +20654,15 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>7.5</v>
-      </c>
-      <c r="D35" s="149" t="str">
-        <f>D10</f>
-        <v/>
-      </c>
-      <c r="E35" s="149" t="str">
-        <f>IF(E10="","",E10)</f>
-        <v/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D35" s="149">
+        <f ca="1">D10</f>
+        <v>0.08</v>
+      </c>
+      <c r="E35" s="149">
+        <f ca="1">IF(E10="","",E10)</f>
+        <v>0.08</v>
       </c>
       <c r="F35" s="149" t="str">
         <f>IF(F10="","",F10)</f>
@@ -20683,13 +20679,13 @@
         <v>304</v>
       </c>
       <c r="C36" s="75"/>
-      <c r="D36" s="278" t="str">
-        <f>IF(D35="","",C35*D35)</f>
-        <v/>
-      </c>
-      <c r="E36" s="278" t="str">
-        <f>IF(E35="","", $D$36)</f>
-        <v/>
+      <c r="D36" s="278">
+        <f ca="1">IF(D35="","",C35*D35)</f>
+        <v>0.65599999999999992</v>
+      </c>
+      <c r="E36" s="278">
+        <f ca="1">IF(E35="","", $D$36)</f>
+        <v>0.65599999999999992</v>
       </c>
       <c r="F36" s="278" t="str">
         <f>IF(F35="","", $D$36)</f>
@@ -20697,7 +20693,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.6</v>
+        <v>0.65599999999999992</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20710,13 +20706,13 @@
         <f>Qualitative_Analysis!E64^2</f>
         <v>0.47173301930040729</v>
       </c>
-      <c r="D37" s="245" t="str">
-        <f>IF(D36="","",D34-D36)</f>
-        <v/>
-      </c>
-      <c r="E37" s="245" t="str">
-        <f>IF(E36="","",E34-E36)</f>
-        <v/>
+      <c r="D37" s="245">
+        <f ca="1">IF(D36="","",D34-D36)</f>
+        <v>-0.81381735516983467</v>
+      </c>
+      <c r="E37" s="245">
+        <f ca="1">IF(E36="","",E34-E36)</f>
+        <v>-0.26458329167168171</v>
       </c>
       <c r="F37" s="245" t="str">
         <f>IF(F36="","",F34-F36)</f>
@@ -20724,7 +20720,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.86739738405779232</v>
+        <v>-0.25037379744076632</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>302</v>
@@ -20735,13 +20731,13 @@
         <v>125</v>
       </c>
       <c r="C38" s="144"/>
-      <c r="D38" s="149" t="str">
-        <f>D11</f>
-        <v/>
-      </c>
-      <c r="E38" s="149" t="str">
-        <f>E11</f>
-        <v/>
+      <c r="D38" s="149">
+        <f ca="1">D11</f>
+        <v>1.08</v>
+      </c>
+      <c r="E38" s="149">
+        <f ca="1">E11</f>
+        <v>1.1664000000000001</v>
       </c>
       <c r="F38" s="149" t="str">
         <f>F11</f>
@@ -20749,7 +20745,7 @@
       </c>
       <c r="G38" s="149">
         <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
-        <v>0.65692833915556026</v>
+        <v>0.76624121479104557</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20758,13 +20754,13 @@
         <v>310</v>
       </c>
       <c r="C39" s="145"/>
-      <c r="D39" s="279" t="str">
-        <f>IF(D37="","",D37/D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="279" t="str">
-        <f>IF(E37="","",E37/E38)</f>
-        <v/>
+      <c r="D39" s="279">
+        <f ca="1">IF(D37="","",D37/D38)</f>
+        <v>-0.75353458812021723</v>
+      </c>
+      <c r="E39" s="279">
+        <f ca="1">IF(E37="","",E37/E38)</f>
+        <v>-0.22683752715336222</v>
       </c>
       <c r="F39" s="279" t="str">
         <f>IF(F37="","",F37/F38)</f>
@@ -20772,7 +20768,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-1.3203835675178464</v>
+        <v>-0.32675584738553043</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20800,7 +20796,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>6.017766206063027</v>
+        <v>6.0310218109217635</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20829,7 +20825,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>6.0992617033394261</v>
+        <v>8.9260129791874565</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20837,15 +20833,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>7.2580876287617946E-2</v>
+        <v>-78.779313708323613</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.53270387517642948</v>
+        <v>0.77958971678242339</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.2899585290063022</v>
+        <v>0.42434211208207334</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20854,7 +20850,8 @@
         <v>313</v>
       </c>
       <c r="C45" s="255">
-        <v>12</v>
+        <f>Projections!F6*0.5/Common_Shares*Data!C4</f>
+        <v>10.517472488637951</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20862,15 +20859,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-1.3912973270124884</v>
+        <v>-128.25244467154215</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0480688996534131</v>
+        <v>0.91858631819181835</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.57047926737928845</v>
+        <v>0.5</v>
       </c>
       <c r="I45" s="43"/>
     </row>
@@ -20880,7 +20877,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.152055350954829</v>
+        <v>10.019072299236996</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20888,15 +20885,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-0.93285200091266196</v>
+        <v>-112.75885674429404</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.88667112340798093</v>
+        <v>0.87505650668410906</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.48262809158389131</v>
+        <v>0.47630608542407038</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20905,7 +20902,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>4.8794093626715407</v>
+        <v>7.1408103833499652</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20913,15 +20910,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>0.37520660936900702</v>
+        <v>-23.283360908216707</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.42616310014114356</v>
+        <v>0.62367177342593871</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.23196682320504178</v>
+        <v>0.33947368966565866</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21855,7 +21852,7 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -22576,7 +22573,7 @@
         <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E8B8E8-0F3C-4538-879B-15086BE8E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D706B2FE-E2C8-450A-960D-4C639914D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D706B2FE-E2C8-450A-960D-4C639914D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F793BB-91F2-4821-863F-13187993753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
 </workbook>
 </file>
 
@@ -1453,35 +1440,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="29">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="177" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="185" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="189" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2313,10 +2300,10 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2364,7 +2351,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,7 +2451,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2481,8 +2468,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,7 +2478,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,7 +2503,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2535,16 +2522,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2574,14 +2561,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2675,7 +2662,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2708,7 +2695,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2728,7 +2715,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2736,7 +2723,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2746,7 +2733,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,7 +2754,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,7 +2763,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,10 +2808,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2833,13 +2820,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2848,7 +2835,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2905,7 +2892,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2947,7 +2934,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,13 +2946,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2977,10 +2964,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,7 +3044,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3076,7 +3063,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3097,84 +3084,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,13 +3124,14 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3198,10 +3141,17 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3213,6 +3163,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3225,26 +3184,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10519,13 +10506,13 @@
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10560,33 +10547,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10597,10 +10584,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44984</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10608,10 +10595,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>243354000</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10634,11 +10621,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>2117.1797999999999</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>2044.1736000000001</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10647,7 +10634,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.298850574712644E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10678,11 +10665,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>24.806146527785913</v>
+        <v>23.950762164758814</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.0312589417299372E-2</v>
+        <v>4.1752324753631491E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10702,41 +10689,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.75984995224872431</v>
+        <v>0.73364822975738908</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41359746884998411</v>
+        <v>0.39933548716550193</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10803,35 +10790,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C16" s="347">
+        <v>8.4</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-4.8382494340575066E-2</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>-7.2532977098815898E-3</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>6.391827543414121</v>
       </c>
-      <c r="G16" s="341" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>2.3081724565858783</v>
-      </c>
-      <c r="I16" s="336">
+        <v>2.0081724565858794</v>
+      </c>
+      <c r="I16" s="367">
         <v>0.2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.298850574712644E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10839,19 +10826,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.3492269160308297</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>1.9573993726167087</v>
       </c>
-      <c r="I17" s="337"/>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>2.395431361626937E-2</v>
@@ -10862,19 +10849,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>2.1838085272804397E-2</v>
       </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>1.8081724565858783</v>
       </c>
-      <c r="I18" s="338"/>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>2.4390243902439029E-2</v>
@@ -10912,80 +10899,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="C24" s="321"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11025,208 +11012,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.19878787878787879</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.19878787878787879</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>16000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>131200</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>131200</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
         <v>10.019072299236996</v>
       </c>
-      <c r="J37" s="373"/>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
         <v>7.1408103833499652</v>
       </c>
-      <c r="J38" s="373"/>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12428,6 +12415,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12444,46 +12471,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12588,12 +12575,12 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16135,18 +16122,18 @@
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16346,7 +16333,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16371,7 +16358,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16396,7 +16383,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16421,7 +16408,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16444,7 +16431,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16469,7 +16456,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>342</v>
       </c>
@@ -16489,7 +16476,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16508,7 +16495,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16532,7 +16519,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16556,7 +16543,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16841,7 +16828,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16870,7 +16857,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16895,7 +16882,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16920,7 +16907,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16944,7 +16931,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16987,7 +16974,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17236,14 +17223,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17258,7 +17245,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17288,7 +17275,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17303,12 +17290,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>4181</v>
       </c>
@@ -17323,7 +17310,7 @@
         <v>1.5005492922008402E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17331,7 +17318,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17347,7 +17334,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17364,7 +17351,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17399,7 +17386,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17420,16 +17407,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>504713.79999999981</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>431707.60000000009</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17541,14 +17528,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19174,12 +19161,12 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19233,7 +19220,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
         <v>385</v>
       </c>
@@ -19257,7 +19244,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
         <v>386</v>
       </c>
@@ -19281,7 +19268,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
         <v>387</v>
       </c>
@@ -19305,7 +19292,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
         <v>388</v>
       </c>
@@ -19329,7 +19316,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>346</v>
       </c>
@@ -19394,7 +19381,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
         <v>349</v>
       </c>
@@ -19487,7 +19474,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
         <v>359</v>
       </c>
@@ -19596,7 +19583,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
         <v>358</v>
       </c>
@@ -19928,14 +19915,14 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20297,7 +20284,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-1.7180732595313823E-2</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20320,7 +20307,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>5.9865011464779707</v>
@@ -20781,7 +20768,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>7.3381497735808736</v>
@@ -21856,16 +21843,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21880,7 +21867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21894,7 +21881,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21908,7 +21895,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21923,7 +21910,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21938,7 +21925,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21953,7 +21940,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21968,7 +21955,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0411.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F793BB-91F2-4821-863F-13187993753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9749F578-08A7-40C5-A817-3C5DC3A13127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3084,6 +3084,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3101,137 +3229,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10547,33 +10547,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10584,10 +10584,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44984</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10595,10 +10595,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>243354000</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10621,11 +10621,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
-        <v>2044.1736000000001</v>
-      </c>
-      <c r="J6" s="350"/>
+        <v>1922.4965999999999</v>
+      </c>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.3809523809523808E-2</v>
+        <v>2.5316455696202531E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10665,11 +10665,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>23.950762164758814</v>
+        <v>22.525121559713646</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.1752324753631491E-2</v>
+        <v>4.439487695322842E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10689,41 +10689,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.73364822975738908</v>
+        <v>0.68997869227183029</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.39933548716550193</v>
+        <v>0.37556551769136493</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10790,35 +10790,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>8.4</v>
-      </c>
-      <c r="C16" s="373">
+        <v>7.9</v>
+      </c>
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-7.2532977098815898E-3</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>6.8236999903417139E-2</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>6.391827543414121</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>2.0081724565858794</v>
-      </c>
-      <c r="I16" s="367">
+        <v>1.5081724565858794</v>
+      </c>
+      <c r="I16" s="336">
         <v>0.2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.3809523809523808E-2</v>
+        <v>2.5316455696202531E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10826,19 +10826,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.3492269160308297</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>1.9573993726167087</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>2.395431361626937E-2</v>
@@ -10849,19 +10849,19 @@
         <f>C37</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>2.1838085272804397E-2</v>
       </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>1.8081724565858783</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>2.4390243902439029E-2</v>
@@ -10899,80 +10899,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>403</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="C24" s="369"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322"/>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11012,208 +11012,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.19878787878787879</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.19878787878787879</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>16000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>131200</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>131200</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1995.5027999999998</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>10.019072299236996</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>7.1408103833499652</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12415,14 +12415,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12439,38 +12463,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17295,7 +17295,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>4181</v>
       </c>
@@ -17318,7 +17318,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17334,7 +17334,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17412,11 +17412,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>431707.60000000009</v>
-      </c>
-      <c r="E63" s="376"/>
+        <v>310030.59999999986</v>
+      </c>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20284,7 +20284,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-1.7180732595313823E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20307,7 +20307,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Common_Shares)</f>
         <v>5.9865011464779707</v>
@@ -20768,7 +20768,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>7.3381497735808736</v>
